--- a/StructureDefinition-ext-R5-TestReport.teardown.xlsx
+++ b/StructureDefinition-ext-R5-TestReport.teardown.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-TestReport.teardown.xlsx
+++ b/StructureDefinition-ext-R5-TestReport.teardown.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `TestReport.teardown` 0..1 `BackboneElement`
 *  R4: `TestReport.teardown` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `TestReport.teardown` is mapped to FHIR R4 element `TestReport.teardown`.</t>
+Element `TestReport.teardown` has is mapped to FHIR R4 element `TestReport.teardown`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -343,7 +343,8 @@
     <t>An action should contain either an operation or an assertion but not both.  It can contain any number of variables.</t>
   </si>
   <si>
-    <t>Element `TestReport.teardown.action` is mapped to FHIR R4 element `TestReport.teardown.action`.</t>
+    <t>Element `TestReport.teardown.action` is part of an existing definition because parent element `TestReport.teardown` requires a cross-version extension.
+Element `TestReport.teardown.action` has is mapped to FHIR R4 element `TestReport.teardown.action`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.id</t>
@@ -370,7 +371,8 @@
     <t>An operation would involve a REST request to a server.</t>
   </si>
   <si>
-    <t>Element `TestReport.teardown.action.operation` is mapped to FHIR R4 element `TestReport.teardown.action.operation`.</t>
+    <t>Element `TestReport.teardown.action.operation` is part of an existing definition because parent element `TestReport.teardown.action` requires a cross-version extension.
+Element `TestReport.teardown.action.operation` has is mapped to FHIR R4 element `TestReport.teardown.action.operation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.extension:operation.id</t>
@@ -453,6 +455,9 @@
   </si>
   <si>
     <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.teardown.action</t>
   </si>
   <si>
     <t>Extension.extension:action.value[x]</t>
@@ -798,7 +803,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="97.93359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="137.34375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -2127,7 +2132,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2189,10 +2194,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">

--- a/StructureDefinition-ext-R5-TestReport.teardown.xlsx
+++ b/StructureDefinition-ext-R5-TestReport.teardown.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
